--- a/res/testcase/statisticalAnalysis/wayChargeReport.xlsx
+++ b/res/testcase/statisticalAnalysis/wayChargeReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>动作</t>
   </si>
@@ -342,13 +342,22 @@
     <t>8</t>
   </si>
   <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>WayChargeReportPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>WayChargeReportPage.记录列表</t>
   </si>
   <si>
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>2筛选进出场报表界面</t>
@@ -366,19 +375,10 @@
     <t>WayChargeReportPage.最近三个月</t>
   </si>
   <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>WayChargeReportPage.搜索按钮</t>
-  </si>
-  <si>
     <t>点击导出</t>
   </si>
   <si>
     <t>WayChargeReportPage.导出</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>点击确认</t>
@@ -407,10 +407,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -428,7 +428,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -436,16 +435,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,39 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,7 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +506,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -542,24 +543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,6 +556,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -587,31 +587,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,151 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,28 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,16 +828,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,17 +863,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,7 +878,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,16 +926,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,115 +944,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1812,10 +1812,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1952,41 +1952,59 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>110</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C2:C4 C6:C9 C11:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C11 C2:C4 C6:C8 C12:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2002,7 +2020,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2111,13 +2129,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2126,13 +2144,13 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2141,13 +2159,13 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2156,19 +2174,19 @@
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>120</v>
